--- a/biology/Botanique/Bretschneidera_sinensis/Bretschneidera_sinensis.xlsx
+++ b/biology/Botanique/Bretschneidera_sinensis/Bretschneidera_sinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bretschneidera sinensis est une espèce de plantes du genre Bretschneidera de la famille des Akaniaceae.
 C'est la seule espèce du genre Bretschneidera et c'est une espèce rare.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est haut de 10 à 20 m. Il présente de grandes inflorescences.
 </t>
@@ -543,12 +557,14 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans le sud et l'est de la Chine, à Taïwan, dans le nord de la Thaïlande et dans le nord du Viêt Nam.
-Bretschneidera sinensis est répertorié comme en danger sur la liste rouge de l'UICN[3]
-En raison de sa découverte relativement récente à Taïwan et en Thaïlande, il est possible qu'on la trouve également au Laos et dans le nord du Myanmar[4].
-Elle a été dénommée en l'honneur d'Emil Bretschneider (en)[5].
+Bretschneidera sinensis est répertorié comme en danger sur la liste rouge de l'UICN
+En raison de sa découverte relativement récente à Taïwan et en Thaïlande, il est possible qu'on la trouve également au Laos et dans le nord du Myanmar.
+Elle a été dénommée en l'honneur d'Emil Bretschneider (en).
 </t>
         </is>
       </c>
